--- a/biology/Zoologie/Anandrus/Anandrus.xlsx
+++ b/biology/Zoologie/Anandrus/Anandrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anandrus est un  genre fossile d'araignées aranéomorphes de la famille des Synotaxidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique, en Russie et au Danemark[1]. Elles datent du Paléogène[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique, en Russie et au Danemark. Elles datent du Paléogène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog (version 20.5, 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog (version 20.5, 2020) :
 † Anandrus inermis (Petrunkevitch, 1942)
 † Anandrus infelix (Petrunkevitch, 1950)
 † Anandrus quaesitus (Petrunkevitch, 1958)
@@ -576,10 +592,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Menge en 1856[3]. Il est placé dans les Synotaxidae par Wunderlich en 2004[4].
-Elucus[5] a été placé en synonymie par Wunderlich en 1986[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Menge en 1856. Il est placé dans les Synotaxidae par Wunderlich en 2004.
+Elucus a été placé en synonymie par Wunderlich en 1986.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Menge, 1856 : « Lebenszeichen vorweltlicher, im Bernstein eigeschlossener Thiere. » Programm der Petrischule zu Danzig, vol. 8, p. 1-32.</t>
         </is>
